--- a/VARIABLES/petroliBrent_filtrat.xlsx
+++ b/VARIABLES/petroliBrent_filtrat.xlsx
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45541</v>
       </c>
       <c r="B7" t="n">
         <v>82.62</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45445</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="n">
         <v>79.62</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424</v>
+        <v>45631</v>
       </c>
       <c r="B11" t="n">
         <v>83.98</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>90.45</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361</v>
+        <v>45568</v>
       </c>
       <c r="B20" t="n">
         <v>85.34</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333</v>
+        <v>45598</v>
       </c>
       <c r="B24" t="n">
         <v>83.47</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="n">
         <v>82.19</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
         <v>78.29000000000001</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B33" t="n">
         <v>76.55</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B34" t="n">
         <v>75.84</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45271</v>
       </c>
       <c r="B37" t="n">
         <v>80.61</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B38" t="n">
         <v>81.43000000000001</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B42" t="n">
         <v>90.89</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B43" t="n">
         <v>84.58</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B46" t="n">
         <v>93.93000000000001</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
         <v>90.65000000000001</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B51" t="n">
         <v>86.81</v>

--- a/VARIABLES/petroliBrent_filtrat.xlsx
+++ b/VARIABLES/petroliBrent_filtrat.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45633</v>
+        <v>45485</v>
       </c>
       <c r="B10" t="n">
         <v>85.03</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45603</v>
+        <v>45484</v>
       </c>
       <c r="B11" t="n">
         <v>85.40000000000001</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45483</v>
       </c>
       <c r="B12" t="n">
         <v>85.08</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45542</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
         <v>84.66</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="B14" t="n">
         <v>85.75</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45419</v>
+        <v>45478</v>
       </c>
       <c r="B15" t="n">
         <v>86.54000000000001</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>87.43000000000001</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
         <v>87.34</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45329</v>
+        <v>45475</v>
       </c>
       <c r="B18" t="n">
         <v>86.23999999999999</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B19" t="n">
         <v>86.59999999999999</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45632</v>
+        <v>45455</v>
       </c>
       <c r="B32" t="n">
         <v>82.15000000000001</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45602</v>
+        <v>45454</v>
       </c>
       <c r="B33" t="n">
         <v>81.54000000000001</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45571</v>
+        <v>45453</v>
       </c>
       <c r="B34" t="n">
         <v>81.23</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45450</v>
       </c>
       <c r="B35" t="n">
         <v>79.34</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="B37" t="n">
         <v>78.04000000000001</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45447</v>
       </c>
       <c r="B38" t="n">
         <v>77.27</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45357</v>
+        <v>45446</v>
       </c>
       <c r="B39" t="n">
         <v>78.22</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45570</v>
+        <v>45422</v>
       </c>
       <c r="B55" t="n">
         <v>82.79000000000001</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45540</v>
+        <v>45421</v>
       </c>
       <c r="B56" t="n">
         <v>83.88</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45509</v>
+        <v>45420</v>
       </c>
       <c r="B57" t="n">
         <v>83.58</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45478</v>
+        <v>45419</v>
       </c>
       <c r="B58" t="n">
         <v>83.16</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45448</v>
+        <v>45418</v>
       </c>
       <c r="B59" t="n">
         <v>83.33</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45356</v>
+        <v>45415</v>
       </c>
       <c r="B60" t="n">
         <v>82.95999999999999</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45327</v>
+        <v>45414</v>
       </c>
       <c r="B61" t="n">
         <v>83.67</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B62" t="n">
         <v>83.44</v>
